--- a/biology/Botanique/Cannabis_en_Tunisie/Cannabis_en_Tunisie.xlsx
+++ b/biology/Botanique/Cannabis_en_Tunisie/Cannabis_en_Tunisie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cannabis en Tunisie, également connu sous le nom de zatla à l'échelle nationale ou takrouri à l'échelle régionale[1], est illégal depuis 1953[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cannabis en Tunisie, également connu sous le nom de zatla à l'échelle nationale ou takrouri à l'échelle régionale, est illégal depuis 1953.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est soupçonné d'avoir été introduit dans la Tunisie actuelle durant les invasions arabes entre le IXe siècle et le XIIe siècle[3].
-Il est interdit dans le pays par le décret du 23 avril 1953[1].
-La loi 52 sur les stupéfiants, en vigueur à partir de 1992, punit de prison ferme la détention et la consommation de cannabis[4]. Le 26 avril 2017, l'Assemblée des représentants du peuple vote la suppression de toute condamnation automatique à la prison ferme pour détention ou consommation de stupéfiants, à commencer par le cannabis[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est soupçonné d'avoir été introduit dans la Tunisie actuelle durant les invasions arabes entre le IXe siècle et le XIIe siècle.
+Il est interdit dans le pays par le décret du 23 avril 1953.
+La loi 52 sur les stupéfiants, en vigueur à partir de 1992, punit de prison ferme la détention et la consommation de cannabis. Le 26 avril 2017, l'Assemblée des représentants du peuple vote la suppression de toute condamnation automatique à la prison ferme pour détention ou consommation de stupéfiants, à commencer par le cannabis.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Réglementation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Utiliser ou posséder du cannabis est passible d'un à cinq ans de prison et de 1 000  à   3 000 dinars d'amende. En vendre, en transporter ou en cultiver est passible de six à 25 ans de prison et de 5 000  à   100 000 dinars d'amende.
-La Tunisie utilise toujours l'analyse d'urine pour prouver les cas d'utilisation en l'absence de possession. Si celle-ci donne un résultat en dessous de vingt nanogrammes par litre, une personne peut être accusée de consommation par inhalation, passible de six mois de prison[6],[7].
+La Tunisie utilise toujours l'analyse d'urine pour prouver les cas d'utilisation en l'absence de possession. Si celle-ci donne un résultat en dessous de vingt nanogrammes par litre, une personne peut être accusée de consommation par inhalation, passible de six mois de prison,.
 </t>
         </is>
       </c>
